--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB0092-9DF4-41E6-BB28-08DA24EBA7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962" activeTab="3"/>
+    <workbookView minimized="1" xWindow="2592" yWindow="1548" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -23,16 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -49,13 +40,13 @@
     <t>https://youtu.be/Axjni-V37A4</t>
   </si>
   <si>
-    <t>https://youtu.be/AvhpiwTKcZk</t>
+    <t>https://youtu.be/UyXkte02GQQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,14 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -427,21 +418,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -450,21 +441,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -473,41 +464,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{64284464-F346-4E57-8364-EF131C73EBF2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
